--- a/data/pca/factorExposure/factorExposure_2016-02-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01588834037466728</v>
+        <v>-0.01990942035753953</v>
       </c>
       <c r="C2">
-        <v>0.04183248129500715</v>
+        <v>0.03602006514632146</v>
       </c>
       <c r="D2">
-        <v>0.1096471677342267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1191033723210128</v>
+      </c>
+      <c r="E2">
+        <v>0.09128568601887567</v>
+      </c>
+      <c r="F2">
+        <v>0.011690903564528</v>
+      </c>
+      <c r="G2">
+        <v>-0.03630491013912347</v>
+      </c>
+      <c r="H2">
+        <v>0.09115647173561191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02496280577713585</v>
+        <v>-0.01488447850630012</v>
       </c>
       <c r="C3">
-        <v>0.08780358591323961</v>
+        <v>0.04265078691959751</v>
       </c>
       <c r="D3">
-        <v>0.1257074074786858</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07825617236428994</v>
+      </c>
+      <c r="E3">
+        <v>0.1117356037383717</v>
+      </c>
+      <c r="F3">
+        <v>-0.03107450041129923</v>
+      </c>
+      <c r="G3">
+        <v>-0.08455662630262115</v>
+      </c>
+      <c r="H3">
+        <v>0.06622291384094825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05813828529372606</v>
+        <v>-0.06054711120597345</v>
       </c>
       <c r="C4">
-        <v>0.06925170139784198</v>
+        <v>0.06751592222071208</v>
       </c>
       <c r="D4">
-        <v>0.09520174158754853</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1157047754311689</v>
+      </c>
+      <c r="E4">
+        <v>0.08494440955986871</v>
+      </c>
+      <c r="F4">
+        <v>-0.01518848591899788</v>
+      </c>
+      <c r="G4">
+        <v>0.03448665515731014</v>
+      </c>
+      <c r="H4">
+        <v>-0.02867248988718976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04343499903885871</v>
+        <v>-0.04058943985499521</v>
       </c>
       <c r="C6">
-        <v>0.03842131755645311</v>
+        <v>0.02813260825146237</v>
       </c>
       <c r="D6">
-        <v>0.1018190668296889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1185657471447207</v>
+      </c>
+      <c r="E6">
+        <v>0.05585316485857461</v>
+      </c>
+      <c r="F6">
+        <v>-0.01296519785776309</v>
+      </c>
+      <c r="G6">
+        <v>-0.003329896650457592</v>
+      </c>
+      <c r="H6">
+        <v>0.006552730149176261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02784712893821736</v>
+        <v>-0.02115350223041904</v>
       </c>
       <c r="C7">
-        <v>0.03557567880200256</v>
+        <v>0.03602135837755731</v>
       </c>
       <c r="D7">
-        <v>0.0733798257028184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.08578181443566144</v>
+      </c>
+      <c r="E7">
+        <v>0.06285356716675573</v>
+      </c>
+      <c r="F7">
+        <v>-0.01953585643145061</v>
+      </c>
+      <c r="G7">
+        <v>0.0585882871806982</v>
+      </c>
+      <c r="H7">
+        <v>0.0846222531620593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.007946920590105775</v>
+        <v>-0.007997643703425726</v>
       </c>
       <c r="C8">
-        <v>0.04569491510880228</v>
+        <v>0.03733618886713477</v>
       </c>
       <c r="D8">
-        <v>0.06664498057633725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07687715308975908</v>
+      </c>
+      <c r="E8">
+        <v>0.04654107969464463</v>
+      </c>
+      <c r="F8">
+        <v>-0.02191510793462752</v>
+      </c>
+      <c r="G8">
+        <v>-0.006710432338425828</v>
+      </c>
+      <c r="H8">
+        <v>0.02470751561709073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04210328830088195</v>
+        <v>-0.04495192181936588</v>
       </c>
       <c r="C9">
-        <v>0.05087445986774172</v>
+        <v>0.0562082891317458</v>
       </c>
       <c r="D9">
-        <v>0.08600157327032475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1048378709183505</v>
+      </c>
+      <c r="E9">
+        <v>0.0558303364761755</v>
+      </c>
+      <c r="F9">
+        <v>-0.001593961070235247</v>
+      </c>
+      <c r="G9">
+        <v>0.03800869144922532</v>
+      </c>
+      <c r="H9">
+        <v>-0.002796149707774327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08595593876743525</v>
+        <v>-0.1131080697775539</v>
       </c>
       <c r="C10">
-        <v>-0.1850342571954992</v>
+        <v>-0.1964277518170053</v>
       </c>
       <c r="D10">
-        <v>0.01576464096184657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.002046804767618342</v>
+      </c>
+      <c r="E10">
+        <v>0.05023045879181376</v>
+      </c>
+      <c r="F10">
+        <v>-0.01088870312871357</v>
+      </c>
+      <c r="G10">
+        <v>0.02775464072220804</v>
+      </c>
+      <c r="H10">
+        <v>-0.0235634746584719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.04206026577069476</v>
+        <v>-0.03510671575668827</v>
       </c>
       <c r="C11">
-        <v>0.05004687279658313</v>
+        <v>0.04588538424047041</v>
       </c>
       <c r="D11">
-        <v>0.05391742294760595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05534119856463823</v>
+      </c>
+      <c r="E11">
+        <v>0.02346454321236924</v>
+      </c>
+      <c r="F11">
+        <v>-0.009566490261111464</v>
+      </c>
+      <c r="G11">
+        <v>0.04272402948280932</v>
+      </c>
+      <c r="H11">
+        <v>0.05244230664898714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04675719058789577</v>
+        <v>-0.03834846722093305</v>
       </c>
       <c r="C12">
-        <v>0.04708567846904294</v>
+        <v>0.04532635127175558</v>
       </c>
       <c r="D12">
-        <v>0.04223938764608107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05199270863630593</v>
+      </c>
+      <c r="E12">
+        <v>0.0343401642891156</v>
+      </c>
+      <c r="F12">
+        <v>-0.001345404336877345</v>
+      </c>
+      <c r="G12">
+        <v>0.03916481128047022</v>
+      </c>
+      <c r="H12">
+        <v>0.05925006280878357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01967634375746552</v>
+        <v>-0.02072530761771396</v>
       </c>
       <c r="C13">
-        <v>0.04773668110748444</v>
+        <v>0.03831846963854241</v>
       </c>
       <c r="D13">
-        <v>0.09405142495837993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1222222905356444</v>
+      </c>
+      <c r="E13">
+        <v>0.09732552459924325</v>
+      </c>
+      <c r="F13">
+        <v>-0.02263928701493069</v>
+      </c>
+      <c r="G13">
+        <v>0.04642862718360859</v>
+      </c>
+      <c r="H13">
+        <v>0.06927941993421646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01527176589311403</v>
+        <v>-0.009305720894917933</v>
       </c>
       <c r="C14">
-        <v>0.03029284313855572</v>
+        <v>0.02727121450570501</v>
       </c>
       <c r="D14">
-        <v>0.06558959899506997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.07769217738953133</v>
+      </c>
+      <c r="E14">
+        <v>0.05842963748748724</v>
+      </c>
+      <c r="F14">
+        <v>0.009147725080507638</v>
+      </c>
+      <c r="G14">
+        <v>0.03951272404720039</v>
+      </c>
+      <c r="H14">
+        <v>0.08323327575810265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0007748082782722248</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006114008128640786</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01987813265889286</v>
+      </c>
+      <c r="E15">
+        <v>0.004753540329145696</v>
+      </c>
+      <c r="F15">
+        <v>0.001888671760433025</v>
+      </c>
+      <c r="G15">
+        <v>-0.00187948278736134</v>
+      </c>
+      <c r="H15">
+        <v>0.01247671951792452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.04215105983024769</v>
+        <v>-0.03510923552174342</v>
       </c>
       <c r="C16">
-        <v>0.05058615124317719</v>
+        <v>0.04609720204201305</v>
       </c>
       <c r="D16">
-        <v>0.05306236957814214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05879747722668536</v>
+      </c>
+      <c r="E16">
+        <v>0.03400954816414749</v>
+      </c>
+      <c r="F16">
+        <v>0.009998380241358221</v>
+      </c>
+      <c r="G16">
+        <v>0.03462601578213439</v>
+      </c>
+      <c r="H16">
+        <v>0.05809924972217102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01853206060499113</v>
+        <v>-0.01460043542041059</v>
       </c>
       <c r="C19">
-        <v>0.0483154308884688</v>
+        <v>0.0340701371490478</v>
       </c>
       <c r="D19">
-        <v>0.1532211802281826</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1299427127962941</v>
+      </c>
+      <c r="E19">
+        <v>0.08816812222169972</v>
+      </c>
+      <c r="F19">
+        <v>0.03109037698341328</v>
+      </c>
+      <c r="G19">
+        <v>0.002932500583111324</v>
+      </c>
+      <c r="H19">
+        <v>0.04892546060815112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.02223539026501157</v>
+        <v>-0.01750773754649601</v>
       </c>
       <c r="C20">
-        <v>0.04515651440482656</v>
+        <v>0.03700990113726033</v>
       </c>
       <c r="D20">
-        <v>0.0749847183042664</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0866356517577611</v>
+      </c>
+      <c r="E20">
+        <v>0.07392838635354275</v>
+      </c>
+      <c r="F20">
+        <v>0.009438899685477401</v>
+      </c>
+      <c r="G20">
+        <v>0.02331203300616515</v>
+      </c>
+      <c r="H20">
+        <v>0.04230550809418548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01802464006949453</v>
+        <v>-0.01622131688212101</v>
       </c>
       <c r="C21">
-        <v>0.0447115327498222</v>
+        <v>0.03857645156952379</v>
       </c>
       <c r="D21">
-        <v>0.09879603468648004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1225268622120445</v>
+      </c>
+      <c r="E21">
+        <v>0.1175538210120959</v>
+      </c>
+      <c r="F21">
+        <v>0.01935629579366048</v>
+      </c>
+      <c r="G21">
+        <v>0.07125983406973324</v>
+      </c>
+      <c r="H21">
+        <v>0.07052732683853478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.00151047414160354</v>
+        <v>-0.005398225832111231</v>
       </c>
       <c r="C22">
-        <v>0.01319068016413959</v>
+        <v>0.0325487237281914</v>
       </c>
       <c r="D22">
-        <v>0.04380609063132305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1042939899354366</v>
+      </c>
+      <c r="E22">
+        <v>0.04504625707200906</v>
+      </c>
+      <c r="F22">
+        <v>-0.07117927056449834</v>
+      </c>
+      <c r="G22">
+        <v>-0.05916875783576817</v>
+      </c>
+      <c r="H22">
+        <v>-0.0120537740861017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001465385847112335</v>
+        <v>-0.00549518585303393</v>
       </c>
       <c r="C23">
-        <v>0.01301903901184975</v>
+        <v>0.03285860424383118</v>
       </c>
       <c r="D23">
-        <v>0.04343951843356628</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1035961822674741</v>
+      </c>
+      <c r="E23">
+        <v>0.0451196858852656</v>
+      </c>
+      <c r="F23">
+        <v>-0.07106337522242354</v>
+      </c>
+      <c r="G23">
+        <v>-0.05860210445835218</v>
+      </c>
+      <c r="H23">
+        <v>-0.01259219650672075</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03895067742804216</v>
+        <v>-0.03654390151130962</v>
       </c>
       <c r="C24">
-        <v>0.05191662170548155</v>
+        <v>0.05409179367484422</v>
       </c>
       <c r="D24">
-        <v>0.05432175355196082</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06160425371103614</v>
+      </c>
+      <c r="E24">
+        <v>0.03725784136539351</v>
+      </c>
+      <c r="F24">
+        <v>0.006807243808432589</v>
+      </c>
+      <c r="G24">
+        <v>0.05070089741579585</v>
+      </c>
+      <c r="H24">
+        <v>0.05969178567040906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04825115490223517</v>
+        <v>-0.04196253504280081</v>
       </c>
       <c r="C25">
-        <v>0.05744389649176921</v>
+        <v>0.05394717773809631</v>
       </c>
       <c r="D25">
-        <v>0.05146633938378185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05539360360853364</v>
+      </c>
+      <c r="E25">
+        <v>0.03606001767058296</v>
+      </c>
+      <c r="F25">
+        <v>-0.009576881201153714</v>
+      </c>
+      <c r="G25">
+        <v>0.0514527932689008</v>
+      </c>
+      <c r="H25">
+        <v>0.04804125766645653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0243625561901727</v>
+        <v>-0.02047433656984876</v>
       </c>
       <c r="C26">
-        <v>0.01394550200996061</v>
+        <v>0.01539736637443083</v>
       </c>
       <c r="D26">
-        <v>0.05230955949118293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06531736717979761</v>
+      </c>
+      <c r="E26">
+        <v>0.04044688350129618</v>
+      </c>
+      <c r="F26">
+        <v>0.0128276109894655</v>
+      </c>
+      <c r="G26">
+        <v>0.01319544263804292</v>
+      </c>
+      <c r="H26">
+        <v>0.04819193892187946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1166047967703394</v>
+        <v>-0.1602166750386573</v>
       </c>
       <c r="C28">
-        <v>-0.2715990639800555</v>
+        <v>-0.2618241117799349</v>
       </c>
       <c r="D28">
-        <v>-0.02844787489358316</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01841385872379428</v>
+      </c>
+      <c r="E28">
+        <v>0.07673427172699024</v>
+      </c>
+      <c r="F28">
+        <v>-0.00660612453208243</v>
+      </c>
+      <c r="G28">
+        <v>0.0690791982888866</v>
+      </c>
+      <c r="H28">
+        <v>-0.02551545258983623</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.00947859269752035</v>
+        <v>-0.008594150528735531</v>
       </c>
       <c r="C29">
-        <v>0.02748218142430303</v>
+        <v>0.02458419533855277</v>
       </c>
       <c r="D29">
-        <v>0.04939197725381387</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.06959518979467309</v>
+      </c>
+      <c r="E29">
+        <v>0.06299689039482101</v>
+      </c>
+      <c r="F29">
+        <v>-0.002452887072045731</v>
+      </c>
+      <c r="G29">
+        <v>0.04829063475989179</v>
+      </c>
+      <c r="H29">
+        <v>0.07580483578101935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04347611538239805</v>
+        <v>-0.04425158711699939</v>
       </c>
       <c r="C30">
-        <v>0.03505907546389674</v>
+        <v>0.05101336363296539</v>
       </c>
       <c r="D30">
-        <v>0.1388322576759679</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1642192138908373</v>
+      </c>
+      <c r="E30">
+        <v>0.04842022348577325</v>
+      </c>
+      <c r="F30">
+        <v>0.001968360359955207</v>
+      </c>
+      <c r="G30">
+        <v>-0.02290885651900856</v>
+      </c>
+      <c r="H30">
+        <v>0.01791567193849705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06950674818789815</v>
+        <v>-0.06414491239133326</v>
       </c>
       <c r="C31">
-        <v>0.06173661615215092</v>
+        <v>0.07138115113668671</v>
       </c>
       <c r="D31">
-        <v>0.03888852005795649</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04377740689602115</v>
+      </c>
+      <c r="E31">
+        <v>0.06715779881484467</v>
+      </c>
+      <c r="F31">
+        <v>-0.03609788665160865</v>
+      </c>
+      <c r="G31">
+        <v>0.03040692065695858</v>
+      </c>
+      <c r="H31">
+        <v>0.02379473953328291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0009667825780881931</v>
+        <v>-0.009664978599884513</v>
       </c>
       <c r="C32">
-        <v>0.0127767744844782</v>
+        <v>0.02017040151190721</v>
       </c>
       <c r="D32">
-        <v>0.05444882653537819</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.08047273861347173</v>
+      </c>
+      <c r="E32">
+        <v>0.1012980251251381</v>
+      </c>
+      <c r="F32">
+        <v>0.01211708935485033</v>
+      </c>
+      <c r="G32">
+        <v>0.06534555126757084</v>
+      </c>
+      <c r="H32">
+        <v>0.05150193180741941</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03243632235248964</v>
+        <v>-0.02768926028970569</v>
       </c>
       <c r="C33">
-        <v>0.04477698886345911</v>
+        <v>0.04529265437569945</v>
       </c>
       <c r="D33">
-        <v>0.1117510450558645</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.121623870524328</v>
+      </c>
+      <c r="E33">
+        <v>0.0741235711817632</v>
+      </c>
+      <c r="F33">
+        <v>-0.01474906994822731</v>
+      </c>
+      <c r="G33">
+        <v>0.04152507234704968</v>
+      </c>
+      <c r="H33">
+        <v>0.05107817159372906</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.04195774808044883</v>
+        <v>-0.03670092978167467</v>
       </c>
       <c r="C34">
-        <v>0.06230853033924693</v>
+        <v>0.061254174358813</v>
       </c>
       <c r="D34">
-        <v>0.05794136425290012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05748215812027286</v>
+      </c>
+      <c r="E34">
+        <v>0.01774577640836132</v>
+      </c>
+      <c r="F34">
+        <v>0.0008072847057094659</v>
+      </c>
+      <c r="G34">
+        <v>0.05772443285362367</v>
+      </c>
+      <c r="H34">
+        <v>0.06776355338162973</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0003081423188613918</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>2.542243935129133e-05</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.001621743906247542</v>
+      </c>
+      <c r="E35">
+        <v>0.0001840075319576029</v>
+      </c>
+      <c r="F35">
+        <v>-0.0002867249626814607</v>
+      </c>
+      <c r="G35">
+        <v>0.0005946141725356281</v>
+      </c>
+      <c r="H35">
+        <v>0.002037953559211418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02280505907356842</v>
+        <v>-0.01905840144456433</v>
       </c>
       <c r="C36">
-        <v>0.01738445230037818</v>
+        <v>0.01704450649632466</v>
       </c>
       <c r="D36">
-        <v>0.05702752989861736</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.06909252087480018</v>
+      </c>
+      <c r="E36">
+        <v>0.05695264210952308</v>
+      </c>
+      <c r="F36">
+        <v>0.004408505548409207</v>
+      </c>
+      <c r="G36">
+        <v>0.03349245486501062</v>
+      </c>
+      <c r="H36">
+        <v>0.04042676137618934</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03433324243671455</v>
+        <v>-0.0254254137017316</v>
       </c>
       <c r="C38">
-        <v>0.03571591245915826</v>
+        <v>0.02603614335375125</v>
       </c>
       <c r="D38">
-        <v>0.03412685548728632</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.05458746908107874</v>
+      </c>
+      <c r="E38">
+        <v>0.04514989943443264</v>
+      </c>
+      <c r="F38">
+        <v>0.003416064965344168</v>
+      </c>
+      <c r="G38">
+        <v>-0.01283424400141306</v>
+      </c>
+      <c r="H38">
+        <v>0.03723544680821165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0474096983313174</v>
+        <v>-0.04213555006743502</v>
       </c>
       <c r="C39">
-        <v>0.05943795433569738</v>
+        <v>0.06115433489946497</v>
       </c>
       <c r="D39">
-        <v>0.0728972750533791</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.09295118468882464</v>
+      </c>
+      <c r="E39">
+        <v>0.03239017379820967</v>
+      </c>
+      <c r="F39">
+        <v>0.02005101769572428</v>
+      </c>
+      <c r="G39">
+        <v>0.03835890118920601</v>
+      </c>
+      <c r="H39">
+        <v>0.07718750131607673</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01262673727493088</v>
+        <v>-0.01596782527565137</v>
       </c>
       <c r="C40">
-        <v>0.0530047649669151</v>
+        <v>0.03894328473968971</v>
       </c>
       <c r="D40">
-        <v>0.06714009876731507</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08429662013024711</v>
+      </c>
+      <c r="E40">
+        <v>0.0994108766005934</v>
+      </c>
+      <c r="F40">
+        <v>-0.04018824803128059</v>
+      </c>
+      <c r="G40">
+        <v>0.0211569744805849</v>
+      </c>
+      <c r="H40">
+        <v>0.1312517821454318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02813350853926033</v>
+        <v>-0.02264172329890174</v>
       </c>
       <c r="C41">
-        <v>0.01052292147117704</v>
+        <v>0.01067690623137747</v>
       </c>
       <c r="D41">
-        <v>0.05386014469053809</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05160450507451461</v>
+      </c>
+      <c r="E41">
+        <v>0.069095129107136</v>
+      </c>
+      <c r="F41">
+        <v>0.004899892126422947</v>
+      </c>
+      <c r="G41">
+        <v>0.02291905975571413</v>
+      </c>
+      <c r="H41">
+        <v>0.04023979585820098</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04447922566877926</v>
+        <v>-0.02959600348446902</v>
       </c>
       <c r="C43">
-        <v>0.02977509308220662</v>
+        <v>0.02297149151049671</v>
       </c>
       <c r="D43">
-        <v>0.0917424171564714</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08483551474137933</v>
+      </c>
+      <c r="E43">
+        <v>0.06570502451992587</v>
+      </c>
+      <c r="F43">
+        <v>-0.006438920243806428</v>
+      </c>
+      <c r="G43">
+        <v>0.03475669873553952</v>
+      </c>
+      <c r="H43">
+        <v>0.05922049024105974</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01572761735108674</v>
+        <v>-0.0183183426195349</v>
       </c>
       <c r="C44">
-        <v>0.05817827038853082</v>
+        <v>0.04297931532135255</v>
       </c>
       <c r="D44">
-        <v>0.05608270263730454</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.08331583007691372</v>
+      </c>
+      <c r="E44">
+        <v>0.08183087777973171</v>
+      </c>
+      <c r="F44">
+        <v>0.01814532017152325</v>
+      </c>
+      <c r="G44">
+        <v>0.03429084026913696</v>
+      </c>
+      <c r="H44">
+        <v>0.04766052708384941</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01889320193219699</v>
+        <v>-0.01637452357574719</v>
       </c>
       <c r="C46">
-        <v>0.02983323901804797</v>
+        <v>0.03087568939081353</v>
       </c>
       <c r="D46">
-        <v>0.04829869197094146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.06880061021603845</v>
+      </c>
+      <c r="E46">
+        <v>0.06579052269319965</v>
+      </c>
+      <c r="F46">
+        <v>0.01569633165053462</v>
+      </c>
+      <c r="G46">
+        <v>0.06507017393549326</v>
+      </c>
+      <c r="H46">
+        <v>0.07783559042386018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09705100904347873</v>
+        <v>-0.09545396260578626</v>
       </c>
       <c r="C47">
-        <v>0.07962510716007917</v>
+        <v>0.08797795125580554</v>
       </c>
       <c r="D47">
-        <v>0.01656061589798481</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02389031256930075</v>
+      </c>
+      <c r="E47">
+        <v>0.05521594622673462</v>
+      </c>
+      <c r="F47">
+        <v>-0.02523123434899589</v>
+      </c>
+      <c r="G47">
+        <v>0.05995564388885552</v>
+      </c>
+      <c r="H47">
+        <v>-0.009505648226475488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02777580186655186</v>
+        <v>-0.02254551016257065</v>
       </c>
       <c r="C48">
-        <v>0.02267129480753314</v>
+        <v>0.02156910894232877</v>
       </c>
       <c r="D48">
-        <v>0.05032313679119841</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.06762185430552861</v>
+      </c>
+      <c r="E48">
+        <v>0.06893140517721341</v>
+      </c>
+      <c r="F48">
+        <v>0.01620579639708138</v>
+      </c>
+      <c r="G48">
+        <v>0.04125884327394577</v>
+      </c>
+      <c r="H48">
+        <v>0.04172823593736842</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08776491423078479</v>
+        <v>-0.07389853220887396</v>
       </c>
       <c r="C50">
-        <v>0.09545622219844811</v>
+        <v>0.07900138512662898</v>
       </c>
       <c r="D50">
-        <v>0.03761620372738535</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05140243882603025</v>
+      </c>
+      <c r="E50">
+        <v>0.07526389178005988</v>
+      </c>
+      <c r="F50">
+        <v>-0.03939187887054572</v>
+      </c>
+      <c r="G50">
+        <v>0.01659064627773895</v>
+      </c>
+      <c r="H50">
+        <v>0.0440347343126418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0147876952139144</v>
+        <v>-0.01224239296700646</v>
       </c>
       <c r="C51">
-        <v>0.0355590918006858</v>
+        <v>0.02169757258592751</v>
       </c>
       <c r="D51">
-        <v>0.08945183420787083</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08975213866509765</v>
+      </c>
+      <c r="E51">
+        <v>0.04789885132698027</v>
+      </c>
+      <c r="F51">
+        <v>0.007678516119966541</v>
+      </c>
+      <c r="G51">
+        <v>0.01823211029307955</v>
+      </c>
+      <c r="H51">
+        <v>0.07181172813911994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08446833605389431</v>
+        <v>-0.09909119663161563</v>
       </c>
       <c r="C53">
-        <v>0.09178791253065927</v>
+        <v>0.09586041863137934</v>
       </c>
       <c r="D53">
-        <v>-0.01200164761805824</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01322128521644357</v>
+      </c>
+      <c r="E53">
+        <v>0.1031939334026009</v>
+      </c>
+      <c r="F53">
+        <v>-0.01295969395046496</v>
+      </c>
+      <c r="G53">
+        <v>0.07709038562278039</v>
+      </c>
+      <c r="H53">
+        <v>-0.06379528905407378</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.04043882082805782</v>
+        <v>-0.03091537671434523</v>
       </c>
       <c r="C54">
-        <v>0.04111775780096454</v>
+        <v>0.03568196810181559</v>
       </c>
       <c r="D54">
-        <v>0.06068102892059282</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.07927493945018486</v>
+      </c>
+      <c r="E54">
+        <v>0.06831818894699281</v>
+      </c>
+      <c r="F54">
+        <v>0.01813607362930138</v>
+      </c>
+      <c r="G54">
+        <v>0.04309312267512834</v>
+      </c>
+      <c r="H54">
+        <v>0.1001266203716452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08663236249030325</v>
+        <v>-0.09410704688718861</v>
       </c>
       <c r="C55">
-        <v>0.07181436310112711</v>
+        <v>0.07968709947369593</v>
       </c>
       <c r="D55">
-        <v>-0.01712925110556658</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02100992453971548</v>
+      </c>
+      <c r="E55">
+        <v>0.06794545190144213</v>
+      </c>
+      <c r="F55">
+        <v>-0.02126499634046247</v>
+      </c>
+      <c r="G55">
+        <v>0.03350994884267193</v>
+      </c>
+      <c r="H55">
+        <v>-0.03952199236555065</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1450077388282026</v>
+        <v>-0.1499767061173985</v>
       </c>
       <c r="C56">
-        <v>0.09869423578979061</v>
+        <v>0.1132303186489512</v>
       </c>
       <c r="D56">
-        <v>-0.02029396808175255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02528692712697777</v>
+      </c>
+      <c r="E56">
+        <v>0.05507558294607785</v>
+      </c>
+      <c r="F56">
+        <v>-0.0170680996663753</v>
+      </c>
+      <c r="G56">
+        <v>0.045414632833488</v>
+      </c>
+      <c r="H56">
+        <v>-0.04956319358283132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.04122545841516014</v>
+        <v>-0.03527577716035151</v>
       </c>
       <c r="C58">
-        <v>-0.01574501621588791</v>
+        <v>0.007360250312951984</v>
       </c>
       <c r="D58">
-        <v>0.4097607448197562</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3715796452637526</v>
+      </c>
+      <c r="E58">
+        <v>0.2347442907985604</v>
+      </c>
+      <c r="F58">
+        <v>-0.07020750739323958</v>
+      </c>
+      <c r="G58">
+        <v>-0.519262533772235</v>
+      </c>
+      <c r="H58">
+        <v>-0.2807455048647031</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1351655115844233</v>
+        <v>-0.153038851928555</v>
       </c>
       <c r="C59">
-        <v>-0.2034121880541734</v>
+        <v>-0.1890819586788107</v>
       </c>
       <c r="D59">
-        <v>0.03431599653498976</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0448266265044174</v>
+      </c>
+      <c r="E59">
+        <v>0.0114452537675581</v>
+      </c>
+      <c r="F59">
+        <v>0.02656530966902299</v>
+      </c>
+      <c r="G59">
+        <v>-0.01610573369027577</v>
+      </c>
+      <c r="H59">
+        <v>-0.02025177102461087</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.254135541827276</v>
+        <v>-0.2346798110846759</v>
       </c>
       <c r="C60">
-        <v>0.07177762977217392</v>
+        <v>0.08158338402678145</v>
       </c>
       <c r="D60">
-        <v>0.1488499439766677</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1531965013694424</v>
+      </c>
+      <c r="E60">
+        <v>-0.3323481832449479</v>
+      </c>
+      <c r="F60">
+        <v>-0.1487827459566064</v>
+      </c>
+      <c r="G60">
+        <v>-0.03284531425141832</v>
+      </c>
+      <c r="H60">
+        <v>-0.05214627460163387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.05089065292980455</v>
+        <v>-0.04515457771453633</v>
       </c>
       <c r="C61">
-        <v>0.0542763865413798</v>
+        <v>0.05481958229049899</v>
       </c>
       <c r="D61">
-        <v>0.07999782109515889</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.08387285716239951</v>
+      </c>
+      <c r="E61">
+        <v>0.03191746100294635</v>
+      </c>
+      <c r="F61">
+        <v>0.004412442109832655</v>
+      </c>
+      <c r="G61">
+        <v>0.04820516714208253</v>
+      </c>
+      <c r="H61">
+        <v>0.06255395653055505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01854732476077343</v>
+        <v>-0.01820815288561456</v>
       </c>
       <c r="C63">
-        <v>0.02829686022444614</v>
+        <v>0.02849134144768562</v>
       </c>
       <c r="D63">
-        <v>0.03714664718264971</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0611005882515243</v>
+      </c>
+      <c r="E63">
+        <v>0.06758118188944684</v>
+      </c>
+      <c r="F63">
+        <v>-0.01785935945061476</v>
+      </c>
+      <c r="G63">
+        <v>0.02293391865884532</v>
+      </c>
+      <c r="H63">
+        <v>0.03616670310459552</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05657531502429928</v>
+        <v>-0.05898141870406729</v>
       </c>
       <c r="C64">
-        <v>0.05658445540076121</v>
+        <v>0.06820971486148777</v>
       </c>
       <c r="D64">
-        <v>0.05157797601324218</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04817668296665814</v>
+      </c>
+      <c r="E64">
+        <v>0.04319522561516868</v>
+      </c>
+      <c r="F64">
+        <v>0.02655929213458649</v>
+      </c>
+      <c r="G64">
+        <v>0.07567398249998424</v>
+      </c>
+      <c r="H64">
+        <v>0.01582967937865532</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06603594667681575</v>
+        <v>-0.05556225206021471</v>
       </c>
       <c r="C65">
-        <v>0.02485439184255884</v>
+        <v>0.0229225140474023</v>
       </c>
       <c r="D65">
-        <v>0.0989934650188856</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1171272765322685</v>
+      </c>
+      <c r="E65">
+        <v>0.01929383772949746</v>
+      </c>
+      <c r="F65">
+        <v>-0.01944087688691057</v>
+      </c>
+      <c r="G65">
+        <v>-0.03500726365107143</v>
+      </c>
+      <c r="H65">
+        <v>-0.0156362729375429</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.05452230858576885</v>
+        <v>-0.04976647240255266</v>
       </c>
       <c r="C66">
-        <v>0.06614563091442097</v>
+        <v>0.06910383077156966</v>
       </c>
       <c r="D66">
-        <v>0.09388717476854952</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1132843677047182</v>
+      </c>
+      <c r="E66">
+        <v>0.03911274958985753</v>
+      </c>
+      <c r="F66">
+        <v>0.00451053537053739</v>
+      </c>
+      <c r="G66">
+        <v>0.02926073096535137</v>
+      </c>
+      <c r="H66">
+        <v>0.06042009087987418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.05508370419657594</v>
+        <v>-0.04423492856338379</v>
       </c>
       <c r="C67">
-        <v>0.03558534943641055</v>
+        <v>0.02929455161805419</v>
       </c>
       <c r="D67">
-        <v>0.01116214706606506</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02151802274243281</v>
+      </c>
+      <c r="E67">
+        <v>0.02584277480854589</v>
+      </c>
+      <c r="F67">
+        <v>-0.002000071868452123</v>
+      </c>
+      <c r="G67">
+        <v>-0.005080842459496847</v>
+      </c>
+      <c r="H67">
+        <v>0.03602014458383462</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1453772699111242</v>
+        <v>-0.164696767665753</v>
       </c>
       <c r="C68">
-        <v>-0.2857853311144039</v>
+        <v>-0.2402660078337149</v>
       </c>
       <c r="D68">
-        <v>-0.03403388376897985</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.004391691748546412</v>
+      </c>
+      <c r="E68">
+        <v>0.05699244091273768</v>
+      </c>
+      <c r="F68">
+        <v>-0.02795270439516878</v>
+      </c>
+      <c r="G68">
+        <v>-0.01240198613818455</v>
+      </c>
+      <c r="H68">
+        <v>-0.007104266927280775</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.09771768042870793</v>
+        <v>-0.0903668444559743</v>
       </c>
       <c r="C69">
-        <v>0.0898992140119958</v>
+        <v>0.09892626809851099</v>
       </c>
       <c r="D69">
-        <v>0.02063389622602364</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.03845222760329182</v>
+      </c>
+      <c r="E69">
+        <v>0.05183017031038867</v>
+      </c>
+      <c r="F69">
+        <v>-0.001766590950901155</v>
+      </c>
+      <c r="G69">
+        <v>0.05803923355426583</v>
+      </c>
+      <c r="H69">
+        <v>0.01319201372408463</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1293500249869048</v>
+        <v>-0.1559597036192356</v>
       </c>
       <c r="C71">
-        <v>-0.2511916490389565</v>
+        <v>-0.2344603508603561</v>
       </c>
       <c r="D71">
-        <v>0.02610675348434232</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02713645057949526</v>
+      </c>
+      <c r="E71">
+        <v>0.06367111011799505</v>
+      </c>
+      <c r="F71">
+        <v>-0.02448130640310539</v>
+      </c>
+      <c r="G71">
+        <v>0.05039111520509764</v>
+      </c>
+      <c r="H71">
+        <v>0.004613322251770811</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09712523381772446</v>
+        <v>-0.1033164913533139</v>
       </c>
       <c r="C72">
-        <v>0.05278173269452645</v>
+        <v>0.05465469996404897</v>
       </c>
       <c r="D72">
-        <v>0.06700257397964503</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.08169608343588709</v>
+      </c>
+      <c r="E72">
+        <v>-0.003017553117737504</v>
+      </c>
+      <c r="F72">
+        <v>-0.03787741845400237</v>
+      </c>
+      <c r="G72">
+        <v>0.05502921100317434</v>
+      </c>
+      <c r="H72">
+        <v>0.01593301803298914</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3068030365334057</v>
+        <v>-0.2714821752492091</v>
       </c>
       <c r="C73">
-        <v>-0.005150238607746677</v>
+        <v>0.03854637226873493</v>
       </c>
       <c r="D73">
-        <v>0.3114722717699643</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.2693769801952277</v>
+      </c>
+      <c r="E73">
+        <v>-0.6264520816727064</v>
+      </c>
+      <c r="F73">
+        <v>-0.2074797508855937</v>
+      </c>
+      <c r="G73">
+        <v>-0.06958562634976652</v>
+      </c>
+      <c r="H73">
+        <v>-0.05879491739283139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1048097293043024</v>
+        <v>-0.1095686651550856</v>
       </c>
       <c r="C74">
-        <v>0.09095781517819893</v>
+        <v>0.09201832394614842</v>
       </c>
       <c r="D74">
-        <v>0.00440416281133239</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01674172614174582</v>
+      </c>
+      <c r="E74">
+        <v>0.07994704725035859</v>
+      </c>
+      <c r="F74">
+        <v>-0.04065960050342272</v>
+      </c>
+      <c r="G74">
+        <v>0.0284126154012658</v>
+      </c>
+      <c r="H74">
+        <v>-0.07908448815547049</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2551925780284348</v>
+        <v>-0.255579788432245</v>
       </c>
       <c r="C75">
-        <v>0.1162122568094668</v>
+        <v>0.1401244376056913</v>
       </c>
       <c r="D75">
-        <v>-0.119296864459746</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1330778459695856</v>
+      </c>
+      <c r="E75">
+        <v>0.05707690606697659</v>
+      </c>
+      <c r="F75">
+        <v>0.01884465746267662</v>
+      </c>
+      <c r="G75">
+        <v>0.03159723170421747</v>
+      </c>
+      <c r="H75">
+        <v>-0.1661214083705747</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1140743031733466</v>
+        <v>-0.1285400650509436</v>
       </c>
       <c r="C76">
-        <v>0.0928683438822806</v>
+        <v>0.1007521014398199</v>
       </c>
       <c r="D76">
-        <v>-0.02446264806216107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.03023716217108761</v>
+      </c>
+      <c r="E76">
+        <v>0.1039159562992707</v>
+      </c>
+      <c r="F76">
+        <v>0.01174407520248723</v>
+      </c>
+      <c r="G76">
+        <v>0.04403234347727594</v>
+      </c>
+      <c r="H76">
+        <v>-0.05188512016108498</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08649172071962619</v>
+        <v>-0.069019204699159</v>
       </c>
       <c r="C77">
-        <v>0.02786863659061645</v>
+        <v>0.05733676204967618</v>
       </c>
       <c r="D77">
-        <v>0.09929291847938321</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1246343594181635</v>
+      </c>
+      <c r="E77">
+        <v>0.0616793968679029</v>
+      </c>
+      <c r="F77">
+        <v>0.2904166383481942</v>
+      </c>
+      <c r="G77">
+        <v>-0.1564615358622897</v>
+      </c>
+      <c r="H77">
+        <v>-0.09993905398695527</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04322737045987266</v>
+        <v>-0.04614293177856879</v>
       </c>
       <c r="C78">
-        <v>0.04596135445663832</v>
+        <v>0.05454327398152049</v>
       </c>
       <c r="D78">
-        <v>0.09204925667192837</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.12332411752859</v>
+      </c>
+      <c r="E78">
+        <v>0.035737093876864</v>
+      </c>
+      <c r="F78">
+        <v>-0.0004584335337059872</v>
+      </c>
+      <c r="G78">
+        <v>0.03477708022336089</v>
+      </c>
+      <c r="H78">
+        <v>0.01753538964605854</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.003396351276995007</v>
+        <v>-0.0405781029758011</v>
       </c>
       <c r="C79">
-        <v>-0.001522706842223573</v>
+        <v>0.06572245986226552</v>
       </c>
       <c r="D79">
-        <v>0.01482316575278749</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05744042714648824</v>
+      </c>
+      <c r="E79">
+        <v>0.1194192255343989</v>
+      </c>
+      <c r="F79">
+        <v>-0.02803031771438925</v>
+      </c>
+      <c r="G79">
+        <v>0.2791561160333711</v>
+      </c>
+      <c r="H79">
+        <v>-0.7159180909754834</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03915935387198934</v>
+        <v>-0.03172579679489894</v>
       </c>
       <c r="C80">
-        <v>0.03281815789415045</v>
+        <v>0.03954476099272437</v>
       </c>
       <c r="D80">
-        <v>0.03212989397889154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03540084696708667</v>
+      </c>
+      <c r="E80">
+        <v>0.003907360389634853</v>
+      </c>
+      <c r="F80">
+        <v>0.0404285658835417</v>
+      </c>
+      <c r="G80">
+        <v>-0.008915745915560712</v>
+      </c>
+      <c r="H80">
+        <v>0.04177873468604568</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1536140081551182</v>
+        <v>-0.1438764472481834</v>
       </c>
       <c r="C81">
-        <v>0.1023449838028471</v>
+        <v>0.1091243034297198</v>
       </c>
       <c r="D81">
-        <v>-0.07614845355302539</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.08554581836699743</v>
+      </c>
+      <c r="E81">
+        <v>0.1003902173714721</v>
+      </c>
+      <c r="F81">
+        <v>0.01217920311176098</v>
+      </c>
+      <c r="G81">
+        <v>0.03966048936328045</v>
+      </c>
+      <c r="H81">
+        <v>-0.07260216140927674</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2483292642632766</v>
+        <v>-0.2538830168186815</v>
       </c>
       <c r="C82">
-        <v>0.1591945781677029</v>
+        <v>0.2024049256343655</v>
       </c>
       <c r="D82">
-        <v>-0.1780053717868345</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2191501705363494</v>
+      </c>
+      <c r="E82">
+        <v>-0.06947351974992051</v>
+      </c>
+      <c r="F82">
+        <v>0.003674122104333614</v>
+      </c>
+      <c r="G82">
+        <v>0.3523264463133166</v>
+      </c>
+      <c r="H82">
+        <v>0.3052704500111257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04257292448171435</v>
+        <v>-0.02795562864987282</v>
       </c>
       <c r="C83">
-        <v>0.03949755533891073</v>
+        <v>0.04700401472231003</v>
       </c>
       <c r="D83">
-        <v>0.07187294836349897</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05239327696861382</v>
+      </c>
+      <c r="E83">
+        <v>0.004597870422107304</v>
+      </c>
+      <c r="F83">
+        <v>0.02558613477038515</v>
+      </c>
+      <c r="G83">
+        <v>-0.005301037399402775</v>
+      </c>
+      <c r="H83">
+        <v>0.02526127142618168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0001500277240758737</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.002107731158498079</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.003612135979494016</v>
+      </c>
+      <c r="E84">
+        <v>0.01011036063735984</v>
+      </c>
+      <c r="F84">
+        <v>-0.002810829105478612</v>
+      </c>
+      <c r="G84">
+        <v>-0.005157872751041634</v>
+      </c>
+      <c r="H84">
+        <v>0.007755455422374175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1944270528827056</v>
+        <v>-0.1820946757941962</v>
       </c>
       <c r="C85">
-        <v>0.09886872288946952</v>
+        <v>0.1146012900012979</v>
       </c>
       <c r="D85">
-        <v>-0.1041504613352159</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1059897944557329</v>
+      </c>
+      <c r="E85">
+        <v>0.03729305255723381</v>
+      </c>
+      <c r="F85">
+        <v>-0.03384886915845042</v>
+      </c>
+      <c r="G85">
+        <v>0.08790573979406331</v>
+      </c>
+      <c r="H85">
+        <v>-0.1459170670547966</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01574691060949673</v>
+        <v>-0.01947393399336505</v>
       </c>
       <c r="C86">
-        <v>0.02171687095479581</v>
+        <v>0.01271427247372669</v>
       </c>
       <c r="D86">
-        <v>0.1353476452259021</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1199944935974229</v>
+      </c>
+      <c r="E86">
+        <v>0.03311654944962021</v>
+      </c>
+      <c r="F86">
+        <v>0.009005680522135955</v>
+      </c>
+      <c r="G86">
+        <v>0.041794308257077</v>
+      </c>
+      <c r="H86">
+        <v>0.05272113986748583</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03303587845581564</v>
+        <v>-0.03397277916923065</v>
       </c>
       <c r="C87">
-        <v>-0.006717972862699225</v>
+        <v>0.01342443340159542</v>
       </c>
       <c r="D87">
-        <v>0.1298802500576873</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1454233037345717</v>
+      </c>
+      <c r="E87">
+        <v>0.08349902103655633</v>
+      </c>
+      <c r="F87">
+        <v>0.06549229238046884</v>
+      </c>
+      <c r="G87">
+        <v>-0.02998016699923267</v>
+      </c>
+      <c r="H87">
+        <v>0.02135036258724965</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1030279438295709</v>
+        <v>-0.0866213061653361</v>
       </c>
       <c r="C88">
-        <v>0.08695601614990139</v>
+        <v>0.06994971610339602</v>
       </c>
       <c r="D88">
-        <v>0.03637256741772908</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03194570552319373</v>
+      </c>
+      <c r="E88">
+        <v>0.05706651293481934</v>
+      </c>
+      <c r="F88">
+        <v>0.001839730142483908</v>
+      </c>
+      <c r="G88">
+        <v>0.04666028108933373</v>
+      </c>
+      <c r="H88">
+        <v>0.0382753529326742</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2052635190263256</v>
+        <v>-0.2375433091553993</v>
       </c>
       <c r="C89">
-        <v>-0.3630197241487539</v>
+        <v>-0.3703225111321723</v>
       </c>
       <c r="D89">
-        <v>-0.04373218143550547</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01123784574482533</v>
+      </c>
+      <c r="E89">
+        <v>0.08088427299979219</v>
+      </c>
+      <c r="F89">
+        <v>0.06360418408274035</v>
+      </c>
+      <c r="G89">
+        <v>0.03759612664481297</v>
+      </c>
+      <c r="H89">
+        <v>0.03097952901253363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1933904442776855</v>
+        <v>-0.2120091731301144</v>
       </c>
       <c r="C90">
-        <v>-0.3012302942016883</v>
+        <v>-0.2860710108919128</v>
       </c>
       <c r="D90">
-        <v>-0.03279662487795895</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.005846949933092087</v>
+      </c>
+      <c r="E90">
+        <v>0.05898998804573095</v>
+      </c>
+      <c r="F90">
+        <v>0.00652022789920698</v>
+      </c>
+      <c r="G90">
+        <v>-0.01498064439987191</v>
+      </c>
+      <c r="H90">
+        <v>0.05700795461801849</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1948491363439524</v>
+        <v>-0.1867204021738727</v>
       </c>
       <c r="C91">
-        <v>0.1596259309002151</v>
+        <v>0.1617103472366458</v>
       </c>
       <c r="D91">
-        <v>-0.07001962797692723</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08655226827692963</v>
+      </c>
+      <c r="E91">
+        <v>0.07860091391811774</v>
+      </c>
+      <c r="F91">
+        <v>-0.0003148689768278924</v>
+      </c>
+      <c r="G91">
+        <v>0.03687026787826223</v>
+      </c>
+      <c r="H91">
+        <v>-0.1550131015442974</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1787033813253167</v>
+        <v>-0.1945754330847363</v>
       </c>
       <c r="C92">
-        <v>-0.265934954500271</v>
+        <v>-0.2838916951780426</v>
       </c>
       <c r="D92">
-        <v>0.01249069201714734</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.00347622520272411</v>
+      </c>
+      <c r="E92">
+        <v>0.08144241708577525</v>
+      </c>
+      <c r="F92">
+        <v>0.04283353255994705</v>
+      </c>
+      <c r="G92">
+        <v>0.040230590983552</v>
+      </c>
+      <c r="H92">
+        <v>0.03679118151659588</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.218575410050164</v>
+        <v>-0.2339956109640625</v>
       </c>
       <c r="C93">
-        <v>-0.3184605019413893</v>
+        <v>-0.3029781186406866</v>
       </c>
       <c r="D93">
-        <v>-0.01237943842762565</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.007282280011498421</v>
+      </c>
+      <c r="E93">
+        <v>0.04055440720893134</v>
+      </c>
+      <c r="F93">
+        <v>-0.02543257724140275</v>
+      </c>
+      <c r="G93">
+        <v>0.02917828076573975</v>
+      </c>
+      <c r="H93">
+        <v>0.01414285157039693</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.382213542338555</v>
+        <v>-0.3559919547152457</v>
       </c>
       <c r="C94">
-        <v>0.2145398391636793</v>
+        <v>0.2202233016810111</v>
       </c>
       <c r="D94">
-        <v>-0.499032686892342</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4341802187441487</v>
+      </c>
+      <c r="E94">
+        <v>0.06415293254519405</v>
+      </c>
+      <c r="F94">
+        <v>0.08880859014803118</v>
+      </c>
+      <c r="G94">
+        <v>-0.5991263672162946</v>
+      </c>
+      <c r="H94">
+        <v>0.1760880894632402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.09799249635168314</v>
+        <v>-0.07311423824543729</v>
       </c>
       <c r="C95">
-        <v>-0.03257692647296829</v>
+        <v>0.02696401067133323</v>
       </c>
       <c r="D95">
-        <v>0.1771245424336334</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1530369665725053</v>
+      </c>
+      <c r="E95">
+        <v>-0.2358898043754491</v>
+      </c>
+      <c r="F95">
+        <v>0.8802045047168566</v>
+      </c>
+      <c r="G95">
+        <v>0.05010682649077879</v>
+      </c>
+      <c r="H95">
+        <v>-0.07126327568729586</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1690193412483107</v>
+        <v>-0.1700635663748047</v>
       </c>
       <c r="C98">
-        <v>0.007996028960359024</v>
+        <v>0.04029724197335764</v>
       </c>
       <c r="D98">
-        <v>0.1812093292762778</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1625902704198526</v>
+      </c>
+      <c r="E98">
+        <v>-0.2528919343493303</v>
+      </c>
+      <c r="F98">
+        <v>-0.1280577619385552</v>
+      </c>
+      <c r="G98">
+        <v>0.004313414512478572</v>
+      </c>
+      <c r="H98">
+        <v>-0.009972135600745332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.009340068098532503</v>
+        <v>-0.008718375489371108</v>
       </c>
       <c r="C101">
-        <v>0.02681060701452191</v>
+        <v>0.0236787612982594</v>
       </c>
       <c r="D101">
-        <v>0.04923651096827197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.06950850818629056</v>
+      </c>
+      <c r="E101">
+        <v>0.06383122975200277</v>
+      </c>
+      <c r="F101">
+        <v>-0.001360991561364849</v>
+      </c>
+      <c r="G101">
+        <v>0.04889027649071959</v>
+      </c>
+      <c r="H101">
+        <v>0.07554911764561753</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1238894353883832</v>
+        <v>-0.1223387173496748</v>
       </c>
       <c r="C102">
-        <v>0.07995604764916579</v>
+        <v>0.1105414534174547</v>
       </c>
       <c r="D102">
-        <v>-0.02204097455055014</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04517801457149735</v>
+      </c>
+      <c r="E102">
+        <v>0.006454782129513073</v>
+      </c>
+      <c r="F102">
+        <v>0.02754819253958176</v>
+      </c>
+      <c r="G102">
+        <v>0.05103037070283908</v>
+      </c>
+      <c r="H102">
+        <v>-0.02364818425716319</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
